--- a/test/screen_size.xlsx
+++ b/test/screen_size.xlsx
@@ -415,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
